--- a/Data/Table/Const.xlsx
+++ b/Data/Table/Const.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaohongfu/Documents/CrushGame/PolarBlastPop-new/Data/Table/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B6A623-B62C-0A47-ACB7-C24C67025185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24300" windowHeight="12860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="31740" windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="常量表|GameConst|config" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>变量名</t>
   </si>
@@ -187,6 +181,9 @@
     <t>popRateUsPanel</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>是否弹出5星面板</t>
   </si>
   <si>
@@ -196,19 +193,26 @@
     <t>弹出5星面板的等级</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>#Knowledge</t>
+  </si>
+  <si>
+    <t>cost_explain</t>
+  </si>
+  <si>
+    <t>查看解析消耗对金币</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,10 +221,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF586E75"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -228,31 +232,29 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="华文宋体"/>
-      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -260,24 +262,180 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF586E75"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -291,8 +449,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -300,11 +644,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -312,25 +898,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -339,10 +925,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -351,19 +937,66 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -650,25 +1283,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="37.6634615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1634615384615" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.1634615384615" style="2" customWidth="1"/>
     <col min="4" max="4" width="51.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" customWidth="1"/>
+    <col min="6" max="6" width="36.1634615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -721,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>
@@ -895,7 +1528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
@@ -908,7 +1541,7 @@
       <c r="D17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
@@ -923,12 +1556,12 @@
       <c r="D18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="F18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
         <v>42</v>
       </c>
@@ -941,9 +1574,9 @@
       <c r="D19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="12" t="s">
         <v>44</v>
       </c>
@@ -956,9 +1589,9 @@
       <c r="D20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
@@ -971,9 +1604,9 @@
       <c r="D21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="12" t="s">
         <v>48</v>
       </c>
@@ -986,9 +1619,9 @@
       <c r="D22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="14" t="s">
         <v>50</v>
       </c>
@@ -1002,7 +1635,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" s="12" t="s">
         <v>52</v>
       </c>
@@ -1017,23 +1650,23 @@
       </c>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>9</v>
@@ -1042,13 +1675,32 @@
         <v>5</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" s="12"/>
     </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="11">
+        <v>100</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Table/Const.xlsx
+++ b/Data/Table/Const.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31740" windowHeight="18200"/>
+    <workbookView windowHeight="15380"/>
   </bookViews>
   <sheets>
     <sheet name="常量表|GameConst|config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -208,11 +208,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,35 +260,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF586E75"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF586E75"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,6 +309,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -316,9 +325,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,61 +396,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,23 +410,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,169 +462,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,15 +643,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,15 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -713,6 +688,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,162 +735,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -931,13 +924,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1292,7 +1285,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1354,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>

--- a/Data/Table/Const.xlsx
+++ b/Data/Table/Const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15380"/>
+    <workbookView windowHeight="18960"/>
   </bookViews>
   <sheets>
     <sheet name="常量表|GameConst|config" sheetId="1" r:id="rId1"/>
@@ -207,9 +207,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -267,7 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,18 +280,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,8 +295,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,106 +416,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -444,37 +444,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,145 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,8 +641,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,17 +662,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,29 +699,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,151 +720,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1347,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>
